--- a/transformacion/staging/depurado/stg_beneficiarios_estrategias_depurado.xlsx
+++ b/transformacion/staging/depurado/stg_beneficiarios_estrategias_depurado.xlsx
@@ -559,13 +559,13 @@
     <t>IE NORMAL NUESTRA SEÑORA DE LAS MERCEDES</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>No reportado</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>878 Computadores
@@ -1104,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
         <v>190</v>
@@ -1163,7 +1163,7 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
         <v>190</v>
@@ -1222,7 +1222,7 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1240,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" t="s">
         <v>190</v>
@@ -1281,7 +1281,7 @@
         <v>56</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
         <v>190</v>
@@ -1340,7 +1340,7 @@
         <v>57</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
         <v>190</v>
@@ -1399,7 +1399,7 @@
         <v>58</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M7" t="s">
         <v>190</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M8" t="s">
         <v>190</v>
@@ -1517,7 +1517,7 @@
         <v>60</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M9" t="s">
         <v>190</v>
@@ -1576,7 +1576,7 @@
         <v>61</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M10" t="s">
         <v>190</v>
@@ -1635,7 +1635,7 @@
         <v>62</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M11" t="s">
         <v>190</v>
@@ -1694,7 +1694,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M12" t="s">
         <v>190</v>
@@ -1753,7 +1753,7 @@
         <v>64</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M13" t="s">
         <v>190</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s">
         <v>190</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s">
         <v>190</v>
@@ -1930,7 +1930,7 @@
         <v>54</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1948,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s">
         <v>190</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s">
         <v>190</v>
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s">
         <v>190</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s">
         <v>190</v>
@@ -2184,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s">
         <v>190</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s">
         <v>190</v>
@@ -2284,7 +2284,7 @@
         <v>72</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s">
         <v>190</v>
@@ -2343,7 +2343,7 @@
         <v>73</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s">
         <v>190</v>
@@ -2402,7 +2402,7 @@
         <v>74</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M24" t="s">
         <v>190</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s">
         <v>190</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" t="s">
         <v>190</v>
@@ -2591,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s">
         <v>191</v>
@@ -2650,16 +2650,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" t="s">
         <v>191</v>
@@ -2709,16 +2709,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s">
         <v>191</v>
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s">
         <v>191</v>
@@ -2827,16 +2827,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s">
         <v>191</v>
@@ -2886,16 +2886,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s">
         <v>191</v>
@@ -2945,16 +2945,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s">
         <v>192</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s">
         <v>192</v>
@@ -3063,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s">
         <v>192</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M36" t="s">
         <v>192</v>
@@ -3181,16 +3181,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s">
         <v>192</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
         <v>192</v>
@@ -3299,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s">
         <v>192</v>
@@ -3358,16 +3358,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M40" t="s">
         <v>192</v>
@@ -3417,16 +3417,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s">
         <v>192</v>
@@ -3476,16 +3476,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s">
         <v>192</v>
@@ -3535,16 +3535,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M43" t="s">
         <v>192</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M44" t="s">
         <v>192</v>
@@ -3653,16 +3653,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M45" t="s">
         <v>192</v>
@@ -3712,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M46" t="s">
         <v>192</v>
@@ -3771,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M47" t="s">
         <v>192</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M48" t="s">
         <v>192</v>
@@ -3889,16 +3889,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M49" t="s">
         <v>192</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M50" t="s">
         <v>192</v>
@@ -4007,16 +4007,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M51" t="s">
         <v>192</v>
@@ -4066,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M52" t="s">
         <v>192</v>
@@ -4125,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M53" t="s">
         <v>192</v>
@@ -4184,16 +4184,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s">
         <v>192</v>
@@ -4243,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M55" t="s">
         <v>192</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M56" t="s">
         <v>192</v>
@@ -4361,16 +4361,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M57" t="s">
         <v>192</v>
@@ -4420,16 +4420,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M58" t="s">
         <v>193</v>
@@ -4479,16 +4479,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M59" t="s">
         <v>193</v>
@@ -4538,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M60" t="s">
         <v>193</v>
@@ -4597,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M61" t="s">
         <v>193</v>
@@ -4656,16 +4656,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M62" t="s">
         <v>193</v>
@@ -4715,16 +4715,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M63" t="s">
         <v>193</v>
@@ -4774,16 +4774,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M64" t="s">
         <v>193</v>
@@ -4833,16 +4833,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M65" t="s">
         <v>193</v>
@@ -4892,16 +4892,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M66" t="s">
         <v>193</v>
@@ -4951,16 +4951,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M67" t="s">
         <v>193</v>
@@ -5010,16 +5010,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M68" t="s">
         <v>193</v>
@@ -5069,16 +5069,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M69" t="s">
         <v>193</v>
@@ -5128,16 +5128,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M70" t="s">
         <v>193</v>
@@ -5187,16 +5187,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M71" t="s">
         <v>193</v>
@@ -5246,16 +5246,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M72" t="s">
         <v>193</v>
@@ -5305,16 +5305,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M73" t="s">
         <v>193</v>
@@ -5364,16 +5364,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M74" t="s">
         <v>194</v>
@@ -5423,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M75" t="s">
         <v>194</v>
@@ -5482,16 +5482,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M76" t="s">
         <v>194</v>
@@ -5541,16 +5541,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M77" t="s">
         <v>194</v>
@@ -5600,16 +5600,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M78" t="s">
         <v>194</v>
@@ -5659,16 +5659,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M79" t="s">
         <v>194</v>
@@ -5718,16 +5718,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M80" t="s">
         <v>194</v>
@@ -5777,16 +5777,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M81" t="s">
         <v>194</v>
@@ -5836,16 +5836,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M82" t="s">
         <v>194</v>
@@ -5895,16 +5895,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M83" t="s">
         <v>194</v>
@@ -5954,16 +5954,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M84" t="s">
         <v>194</v>
@@ -6013,16 +6013,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M85" t="s">
         <v>194</v>
@@ -6072,16 +6072,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M86" t="s">
         <v>194</v>
@@ -6131,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M87" t="s">
         <v>194</v>
@@ -6190,16 +6190,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M88" t="s">
         <v>194</v>
@@ -6249,16 +6249,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M89" t="s">
         <v>194</v>
@@ -6308,16 +6308,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M90" t="s">
         <v>194</v>
@@ -6367,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M91" t="s">
         <v>194</v>
@@ -6426,16 +6426,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M92" t="s">
         <v>194</v>
@@ -6485,16 +6485,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M93" t="s">
         <v>194</v>
@@ -6544,16 +6544,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M94" t="s">
         <v>194</v>
@@ -6603,16 +6603,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M95" t="s">
         <v>194</v>
@@ -6662,16 +6662,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M96" t="s">
         <v>194</v>
@@ -6721,16 +6721,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M97" t="s">
         <v>194</v>
@@ -6780,16 +6780,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M98" t="s">
         <v>194</v>
@@ -6839,16 +6839,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M99" t="s">
         <v>194</v>
@@ -6898,16 +6898,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M100" t="s">
         <v>194</v>
@@ -6957,16 +6957,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M101" t="s">
         <v>194</v>
@@ -7016,16 +7016,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M102" t="s">
         <v>194</v>
@@ -7075,16 +7075,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M103" t="s">
         <v>194</v>
@@ -7134,16 +7134,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M104" t="s">
         <v>194</v>
@@ -7193,16 +7193,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M105" t="s">
         <v>194</v>
@@ -7252,16 +7252,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M106" t="s">
         <v>194</v>
@@ -7311,16 +7311,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M107" t="s">
         <v>194</v>
@@ -7370,16 +7370,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M108" t="s">
         <v>194</v>
@@ -7429,16 +7429,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M109" t="s">
         <v>194</v>
@@ -7488,16 +7488,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M110" t="s">
         <v>194</v>
@@ -7547,16 +7547,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M111" t="s">
         <v>194</v>
@@ -7606,16 +7606,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M112" t="s">
         <v>194</v>
@@ -7665,16 +7665,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M113" t="s">
         <v>194</v>
@@ -7724,16 +7724,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M114" t="s">
         <v>194</v>
@@ -7783,16 +7783,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M115" t="s">
         <v>194</v>
@@ -7842,16 +7842,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M116" t="s">
         <v>194</v>
@@ -7901,16 +7901,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L117" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M117" t="s">
         <v>194</v>
@@ -7960,16 +7960,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M118" t="s">
         <v>194</v>
@@ -8019,16 +8019,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L119" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M119" t="s">
         <v>194</v>
@@ -8078,16 +8078,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L120" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M120" t="s">
         <v>194</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M121" t="s">
         <v>194</v>
@@ -8196,16 +8196,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L122" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M122" t="s">
         <v>194</v>
@@ -8255,16 +8255,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L123" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M123" t="s">
         <v>194</v>
@@ -8314,16 +8314,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L124" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M124" t="s">
         <v>194</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L125" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M125" t="s">
         <v>194</v>
@@ -8432,16 +8432,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L126" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M126" t="s">
         <v>194</v>
@@ -8491,16 +8491,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L127" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M127" t="s">
         <v>194</v>
@@ -8550,16 +8550,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L128" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M128" t="s">
         <v>194</v>
@@ -8609,16 +8609,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M129" t="s">
         <v>194</v>
@@ -8668,16 +8668,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M130" t="s">
         <v>194</v>
@@ -8727,16 +8727,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M131" t="s">
         <v>194</v>
@@ -8786,16 +8786,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M132" t="s">
         <v>194</v>
@@ -8845,16 +8845,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L133" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M133" t="s">
         <v>194</v>
@@ -8904,16 +8904,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M134" t="s">
         <v>194</v>
@@ -8963,16 +8963,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M135" t="s">
         <v>194</v>
@@ -9022,16 +9022,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L136" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M136" t="s">
         <v>194</v>
@@ -9081,16 +9081,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L137" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M137" t="s">
         <v>194</v>
@@ -9140,16 +9140,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L138" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M138" t="s">
         <v>194</v>
@@ -9199,16 +9199,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L139" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M139" t="s">
         <v>194</v>
@@ -9258,16 +9258,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L140" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M140" t="s">
         <v>194</v>
@@ -9317,16 +9317,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L141" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M141" t="s">
         <v>194</v>
@@ -9376,16 +9376,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L142" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M142" t="s">
         <v>194</v>
@@ -9435,16 +9435,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L143" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M143" t="s">
         <v>194</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L144" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M144" t="s">
         <v>194</v>
@@ -9553,16 +9553,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L145" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M145" t="s">
         <v>194</v>
@@ -9612,16 +9612,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L146" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M146" t="s">
         <v>194</v>
@@ -9671,16 +9671,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L147" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M147" t="s">
         <v>194</v>
@@ -9730,16 +9730,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L148" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M148" t="s">
         <v>194</v>
@@ -9789,16 +9789,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L149" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M149" t="s">
         <v>194</v>
@@ -9848,16 +9848,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L150" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M150" t="s">
         <v>194</v>
@@ -9907,16 +9907,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L151" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M151" t="s">
         <v>194</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M152" t="s">
         <v>194</v>
@@ -10025,16 +10025,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M153" t="s">
         <v>194</v>
@@ -10084,16 +10084,16 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M154" t="s">
         <v>194</v>
@@ -10143,16 +10143,16 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L155" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M155" t="s">
         <v>194</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L156" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M156" t="s">
         <v>194</v>
@@ -10261,16 +10261,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L157" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M157" t="s">
         <v>194</v>
@@ -10320,16 +10320,16 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L158" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M158" t="s">
         <v>194</v>
@@ -10379,16 +10379,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L159" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M159" t="s">
         <v>194</v>
@@ -10438,16 +10438,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M160" t="s">
         <v>194</v>
@@ -10497,16 +10497,16 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L161" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M161" t="s">
         <v>194</v>
@@ -10556,16 +10556,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L162" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M162" t="s">
         <v>194</v>
@@ -10615,16 +10615,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L163" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M163" t="s">
         <v>194</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L164" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M164" t="s">
         <v>194</v>
@@ -10733,16 +10733,16 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L165" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M165" t="s">
         <v>194</v>
@@ -10792,16 +10792,16 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M166" t="s">
         <v>194</v>
@@ -10851,16 +10851,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L167" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M167" t="s">
         <v>194</v>
@@ -10910,16 +10910,16 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L168" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M168" t="s">
         <v>194</v>
@@ -10969,16 +10969,16 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L169" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M169" t="s">
         <v>194</v>
@@ -11028,16 +11028,16 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L170" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M170" t="s">
         <v>194</v>
@@ -11087,16 +11087,16 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M171" t="s">
         <v>194</v>
@@ -11146,16 +11146,16 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M172" t="s">
         <v>194</v>
@@ -11205,16 +11205,16 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M173" t="s">
         <v>194</v>
@@ -11264,16 +11264,16 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L174" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M174" t="s">
         <v>194</v>
@@ -11323,16 +11323,16 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L175" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M175" t="s">
         <v>194</v>
@@ -11382,16 +11382,16 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L176" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M176" t="s">
         <v>194</v>
@@ -11441,16 +11441,16 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L177" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M177" t="s">
         <v>194</v>
@@ -11500,16 +11500,16 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M178" t="s">
         <v>194</v>
@@ -11559,16 +11559,16 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J179">
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M179" t="s">
         <v>194</v>
@@ -11618,16 +11618,16 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L180" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M180" t="s">
         <v>194</v>
@@ -11677,16 +11677,16 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M181" t="s">
         <v>194</v>
@@ -11736,16 +11736,16 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M182" t="s">
         <v>194</v>
@@ -11795,16 +11795,16 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M183" t="s">
         <v>194</v>
@@ -11854,16 +11854,16 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L184" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M184" t="s">
         <v>194</v>
@@ -11913,16 +11913,16 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L185" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M185" t="s">
         <v>194</v>
@@ -11972,16 +11972,16 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L186" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M186" t="s">
         <v>194</v>
@@ -12031,16 +12031,16 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L187" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M187" t="s">
         <v>194</v>
@@ -12090,16 +12090,16 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L188" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M188" t="s">
         <v>194</v>
@@ -12149,16 +12149,16 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L189" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M189" t="s">
         <v>194</v>
@@ -12208,16 +12208,16 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L190" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M190" t="s">
         <v>194</v>
@@ -12267,16 +12267,16 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L191" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M191" t="s">
         <v>194</v>
@@ -12326,16 +12326,16 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
       <c r="K192" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L192" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M192" t="s">
         <v>194</v>
@@ -12385,16 +12385,16 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
       <c r="K193" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L193" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M193" t="s">
         <v>194</v>
@@ -12444,16 +12444,16 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L194" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M194" t="s">
         <v>194</v>
@@ -12503,16 +12503,16 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L195" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M195" t="s">
         <v>194</v>
@@ -12562,16 +12562,16 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L196" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M196" t="s">
         <v>194</v>
@@ -12621,16 +12621,16 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L197" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M197" t="s">
         <v>194</v>
@@ -12680,16 +12680,16 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L198" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M198" t="s">
         <v>194</v>
@@ -12739,16 +12739,16 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
       <c r="K199" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L199" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M199" t="s">
         <v>194</v>
@@ -12798,16 +12798,16 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L200" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M200" t="s">
         <v>194</v>
@@ -12857,16 +12857,16 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L201" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M201" t="s">
         <v>194</v>
@@ -12916,16 +12916,16 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L202" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M202" t="s">
         <v>194</v>
@@ -12975,16 +12975,16 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
       <c r="K203" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L203" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M203" t="s">
         <v>194</v>
@@ -13034,16 +13034,16 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L204" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M204" t="s">
         <v>194</v>
@@ -13093,16 +13093,16 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
       <c r="K205" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L205" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M205" t="s">
         <v>194</v>
@@ -13152,16 +13152,16 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J206">
         <v>0</v>
       </c>
       <c r="K206" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L206" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M206" t="s">
         <v>194</v>
@@ -13211,16 +13211,16 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L207" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M207" t="s">
         <v>194</v>
@@ -13270,16 +13270,16 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L208" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M208" t="s">
         <v>194</v>
@@ -13329,16 +13329,16 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M209" t="s">
         <v>194</v>
@@ -13388,16 +13388,16 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L210" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M210" t="s">
         <v>194</v>
@@ -13447,16 +13447,16 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M211" t="s">
         <v>194</v>
@@ -13506,16 +13506,16 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L212" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M212" t="s">
         <v>194</v>
@@ -13565,16 +13565,16 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J213">
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L213" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M213" t="s">
         <v>194</v>
@@ -13624,16 +13624,16 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L214" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M214" t="s">
         <v>194</v>
@@ -13683,16 +13683,16 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L215" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M215" t="s">
         <v>194</v>
@@ -13742,16 +13742,16 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L216" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M216" t="s">
         <v>194</v>
@@ -13801,16 +13801,16 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J217">
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L217" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M217" t="s">
         <v>194</v>
@@ -13860,16 +13860,16 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J218">
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L218" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M218" t="s">
         <v>194</v>
@@ -13919,16 +13919,16 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J219">
         <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L219" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M219" t="s">
         <v>194</v>
@@ -13978,16 +13978,16 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J220">
         <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L220" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M220" t="s">
         <v>194</v>
@@ -14037,16 +14037,16 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J221">
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L221" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M221" t="s">
         <v>194</v>
@@ -14096,13 +14096,13 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J222">
         <v>0</v>
       </c>
       <c r="K222" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L222" t="s">
         <v>184</v>
@@ -14155,13 +14155,13 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J223">
         <v>0</v>
       </c>
       <c r="K223" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L223" t="s">
         <v>185</v>
@@ -14214,13 +14214,13 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
       <c r="K224" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L224" t="s">
         <v>186</v>
@@ -14273,13 +14273,13 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J225">
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L225" t="s">
         <v>187</v>
@@ -14332,13 +14332,13 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L226" t="s">
         <v>188</v>
@@ -14391,13 +14391,13 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J227">
         <v>0</v>
       </c>
       <c r="K227" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L227" t="s">
         <v>189</v>
@@ -14450,16 +14450,16 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J228">
         <v>0</v>
       </c>
       <c r="K228" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L228" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M228" t="s">
         <v>196</v>
@@ -14509,16 +14509,16 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
       <c r="K229" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L229" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M229" t="s">
         <v>196</v>
@@ -14568,16 +14568,16 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J230">
         <v>0</v>
       </c>
       <c r="K230" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L230" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M230" t="s">
         <v>196</v>
@@ -14627,16 +14627,16 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J231">
         <v>0</v>
       </c>
       <c r="K231" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L231" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M231" t="s">
         <v>196</v>
@@ -14686,16 +14686,16 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J232">
         <v>0</v>
       </c>
       <c r="K232" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L232" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M232" t="s">
         <v>196</v>
@@ -14745,16 +14745,16 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J233">
         <v>0</v>
       </c>
       <c r="K233" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L233" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M233" t="s">
         <v>196</v>
@@ -14804,16 +14804,16 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J234">
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L234" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M234" t="s">
         <v>196</v>
@@ -14863,16 +14863,16 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J235">
         <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L235" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M235" t="s">
         <v>196</v>
